--- a/תוצאות.xlsx
+++ b/תוצאות.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8128CE-796E-4F90-BD43-51941D57298C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23738F0-A8A4-4821-A889-9A0FE89EC622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{427DC726-37E6-43FA-B94D-9E8BFD9D374B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>description</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">diffrence </t>
-  </si>
-  <si>
-    <t>average</t>
   </si>
 </sst>
 </file>
@@ -628,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C441E2CB-37EE-4F46-964B-B6AD5F37858C}">
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,12 +645,12 @@
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -693,11 +690,8 @@
       <c r="S2" t="s">
         <v>80</v>
       </c>
-      <c r="U2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -744,12 +738,8 @@
         <f>R3-Q3</f>
         <v>9.6069999999999989E-2</v>
       </c>
-      <c r="U3">
-        <f>AVERAGE(S3:S58)</f>
-        <v>0.16213196428571428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -797,7 +787,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -845,7 +835,7 @@
         <v>0.14007999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -893,7 +883,7 @@
         <v>0.12473000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -941,7 +931,7 @@
         <v>0.10436999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -989,7 +979,7 @@
         <v>5.8540000000000036E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1027,7 @@
         <v>0.12031999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1075,7 @@
         <v>6.0710000000000042E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1123,7 @@
         <v>7.999999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1171,7 @@
         <v>0.16647000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1219,7 @@
         <v>9.2739999999999934E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1267,7 @@
         <v>0.10665999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1315,7 @@
         <v>0.14476999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>

--- a/תוצאות.xlsx
+++ b/תוצאות.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23738F0-A8A4-4821-A889-9A0FE89EC622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5796912-0973-4AFF-9BD1-358637DBBB63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{427DC726-37E6-43FA-B94D-9E8BFD9D374B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
   <si>
     <t>description</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t xml:space="preserve">diffrence </t>
+  </si>
+  <si>
+    <t>clustering with diagnoal</t>
+  </si>
+  <si>
+    <t>with cluster mean diff</t>
   </si>
 </sst>
 </file>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C441E2CB-37EE-4F46-964B-B6AD5F37858C}">
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,14 +649,22 @@
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -690,8 +704,23 @@
       <c r="S2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -738,8 +767,27 @@
         <f>R3-Q3</f>
         <v>9.6069999999999989E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>0.13667000000000001</v>
+      </c>
+      <c r="V3">
+        <v>0.77951999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.93416999999999994</v>
+      </c>
+      <c r="X3">
+        <v>0.85016000000000003</v>
+      </c>
+      <c r="Y3">
+        <f>X3-V3</f>
+        <v>7.0640000000000036E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -786,8 +834,27 @@
         <f t="shared" ref="S4:S57" si="0">R4-Q4</f>
         <v>4.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>0.23246</v>
+      </c>
+      <c r="V4">
+        <v>0.95221999999999996</v>
+      </c>
+      <c r="W4">
+        <v>0.98333000000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.90981000000000001</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y12" si="1">X4-V4</f>
+        <v>-4.2409999999999948E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -834,8 +901,27 @@
         <f t="shared" si="0"/>
         <v>0.14007999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>0.31115999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.81889000000000001</v>
+      </c>
+      <c r="W5">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="X5">
+        <v>0.77356999999999998</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>-4.5320000000000027E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -882,8 +968,31 @@
         <f t="shared" si="0"/>
         <v>0.12473000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>0.28201999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.86567000000000005</v>
+      </c>
+      <c r="W6">
+        <v>0.94404999999999994</v>
+      </c>
+      <c r="X6">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>5.1829999999999932E-2</v>
+      </c>
+      <c r="AB6">
+        <f>AVERAGE(Y3:Y12)</f>
+        <v>-2.3657999999999992E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -930,8 +1039,27 @@
         <f t="shared" si="0"/>
         <v>0.10436999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>0.25416</v>
+      </c>
+      <c r="V7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.94821</v>
+      </c>
+      <c r="X7">
+        <v>0.92032000000000003</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>1.4319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -978,8 +1106,27 @@
         <f t="shared" si="0"/>
         <v>5.8540000000000036E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>0.19111</v>
+      </c>
+      <c r="V8">
+        <v>0.78320999999999996</v>
+      </c>
+      <c r="W8">
+        <v>0.85138999999999998</v>
+      </c>
+      <c r="X8">
+        <v>0.73202</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>-5.1189999999999958E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +1173,27 @@
         <f t="shared" si="0"/>
         <v>0.12031999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>0.26473000000000002</v>
+      </c>
+      <c r="V9">
+        <v>0.84206000000000003</v>
+      </c>
+      <c r="W9">
+        <v>0.94821</v>
+      </c>
+      <c r="X9">
+        <v>0.88599000000000006</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>4.3930000000000025E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1074,8 +1240,27 @@
         <f t="shared" si="0"/>
         <v>6.0710000000000042E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>0.32623999999999997</v>
+      </c>
+      <c r="V10">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="W10">
+        <v>0.99</v>
+      </c>
+      <c r="X10">
+        <v>0.86448000000000003</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>-2.1900000000000253E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1122,8 +1307,27 @@
         <f t="shared" si="0"/>
         <v>7.999999999999996E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11">
+        <v>0.17971999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="W11">
+        <v>0.82487999999999995</v>
+      </c>
+      <c r="X11">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>-0.25769999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1170,8 +1374,27 @@
         <f t="shared" si="0"/>
         <v>0.16647000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12">
+        <v>0.14083000000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.48762</v>
+      </c>
+      <c r="W12">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="X12">
+        <v>0.46912999999999999</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>-1.8490000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1442,7 @@
         <v>9.2739999999999934E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1490,7 @@
         <v>0.10665999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1538,7 @@
         <v>0.14476999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>

--- a/תוצאות.xlsx
+++ b/תוצאות.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5796912-0973-4AFF-9BD1-358637DBBB63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16C3E9-C015-486F-ADE2-3CD4A40F4080}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{427DC726-37E6-43FA-B94D-9E8BFD9D374B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
   <si>
     <t>description</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>with cluster mean diff</t>
+  </si>
+  <si>
+    <t>with two mean</t>
+  </si>
+  <si>
+    <t>with cluster mean diff full GMM</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C441E2CB-37EE-4F46-964B-B6AD5F37858C}">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="R40" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,13 +656,15 @@
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
         <v>79</v>
       </c>
@@ -664,7 +672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -714,13 +722,19 @@
         <v>2</v>
       </c>
       <c r="W2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" t="s">
         <v>3</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -771,23 +785,25 @@
         <v>4</v>
       </c>
       <c r="U3">
-        <v>0.13667000000000001</v>
+        <v>7.0237999999999995E-2</v>
       </c>
       <c r="V3">
-        <v>0.77951999999999999</v>
+        <v>0.85324999999999995</v>
       </c>
       <c r="W3">
-        <v>0.93416999999999994</v>
+        <v>0.94528000000000001</v>
       </c>
       <c r="X3">
-        <v>0.85016000000000003</v>
+        <v>0.95655000000000001</v>
       </c>
       <c r="Y3">
-        <f>X3-V3</f>
-        <v>7.0640000000000036E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.81713999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.74821000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -838,23 +854,25 @@
         <v>5</v>
       </c>
       <c r="U4">
-        <v>0.23246</v>
+        <v>0.28305999999999998</v>
       </c>
       <c r="V4">
-        <v>0.95221999999999996</v>
+        <v>0.89166999999999996</v>
       </c>
       <c r="W4">
-        <v>0.98333000000000004</v>
+        <v>0.92142999999999997</v>
       </c>
       <c r="X4">
-        <v>0.90981000000000001</v>
+        <v>0.92142999999999997</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y12" si="1">X4-V4</f>
-        <v>-4.2409999999999948E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+      <c r="Z4">
+        <v>0.89488000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -905,23 +923,25 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>0.31115999999999999</v>
+        <v>0.21909000000000001</v>
       </c>
       <c r="V5">
-        <v>0.81889000000000001</v>
+        <v>0.81810000000000005</v>
       </c>
       <c r="W5">
-        <v>0.85975999999999997</v>
+        <v>0.88976</v>
       </c>
       <c r="X5">
-        <v>0.77356999999999998</v>
+        <v>0.86548000000000003</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="1"/>
-        <v>-4.5320000000000027E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.70179000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>0.75024000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -972,27 +992,25 @@
         <v>7</v>
       </c>
       <c r="U6">
-        <v>0.28201999999999999</v>
+        <v>0.20408000000000001</v>
       </c>
       <c r="V6">
-        <v>0.86567000000000005</v>
+        <v>0.85555999999999999</v>
       </c>
       <c r="W6">
-        <v>0.94404999999999994</v>
+        <v>0.93713999999999997</v>
       </c>
       <c r="X6">
-        <v>0.91749999999999998</v>
+        <v>0.97143000000000002</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>5.1829999999999932E-2</v>
-      </c>
-      <c r="AB6">
-        <f>AVERAGE(Y3:Y12)</f>
-        <v>-2.3657999999999992E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.82952000000000004</v>
+      </c>
+      <c r="Z6">
+        <v>0.87905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1043,23 +1061,25 @@
         <v>8</v>
       </c>
       <c r="U7">
-        <v>0.25416</v>
+        <v>0.16900999999999999</v>
       </c>
       <c r="V7">
-        <v>0.90600000000000003</v>
+        <v>0.91793999999999998</v>
       </c>
       <c r="W7">
-        <v>0.94821</v>
+        <v>0.96</v>
       </c>
       <c r="X7">
-        <v>0.92032000000000003</v>
+        <v>0.94889000000000001</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
-        <v>1.4319999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.89405000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.87202000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1110,23 +1130,25 @@
         <v>9</v>
       </c>
       <c r="U8">
-        <v>0.19111</v>
+        <v>0.13036</v>
       </c>
       <c r="V8">
-        <v>0.78320999999999996</v>
+        <v>0.76575000000000004</v>
       </c>
       <c r="W8">
-        <v>0.85138999999999998</v>
+        <v>0.91905000000000003</v>
       </c>
       <c r="X8">
-        <v>0.73202</v>
+        <v>0.92281999999999997</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="1"/>
-        <v>-5.1189999999999958E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.79491999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.80262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1177,23 +1199,25 @@
         <v>10</v>
       </c>
       <c r="U9">
-        <v>0.26473000000000002</v>
+        <v>0.24551999999999999</v>
       </c>
       <c r="V9">
-        <v>0.84206000000000003</v>
+        <v>0.87278</v>
       </c>
       <c r="W9">
-        <v>0.94821</v>
+        <v>0.95</v>
       </c>
       <c r="X9">
-        <v>0.88599000000000006</v>
+        <v>0.94571000000000005</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="1"/>
-        <v>4.3930000000000025E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="Z9">
+        <v>0.80635000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1244,23 +1268,25 @@
         <v>11</v>
       </c>
       <c r="U10">
-        <v>0.32623999999999997</v>
+        <v>0.2394</v>
       </c>
       <c r="V10">
-        <v>0.86667000000000005</v>
+        <v>0.82193000000000005</v>
       </c>
       <c r="W10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.86448000000000003</v>
+        <v>0.97321000000000002</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>-2.1900000000000253E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.84963999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.83377000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1311,23 +1337,25 @@
         <v>12</v>
       </c>
       <c r="U11">
-        <v>0.17971999999999999</v>
+        <v>0.14463999999999999</v>
       </c>
       <c r="V11">
-        <v>0.64959999999999996</v>
+        <v>0.67488000000000004</v>
       </c>
       <c r="W11">
-        <v>0.82487999999999995</v>
+        <v>0.7681</v>
       </c>
       <c r="X11">
-        <v>0.39190000000000003</v>
+        <v>0.77619000000000005</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="1"/>
-        <v>-0.25769999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.38889000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.52734000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1378,23 +1406,25 @@
         <v>13</v>
       </c>
       <c r="U12">
-        <v>0.14083000000000001</v>
+        <v>0.13667000000000001</v>
       </c>
       <c r="V12">
-        <v>0.48762</v>
-      </c>
-      <c r="W12">
-        <v>0.73333000000000004</v>
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="W12" t="s">
+        <v>78</v>
       </c>
       <c r="X12">
-        <v>0.46912999999999999</v>
+        <v>0.79213999999999996</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="1"/>
-        <v>-1.8490000000000006E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.48952000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>0.43619000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1441,8 +1471,29 @@
         <f t="shared" si="0"/>
         <v>9.2739999999999934E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13">
+        <v>8.6666999999999994E-2</v>
+      </c>
+      <c r="V13">
+        <v>0.61433000000000004</v>
+      </c>
+      <c r="W13">
+        <v>0.78832999999999998</v>
+      </c>
+      <c r="X13">
+        <v>0.74726000000000004</v>
+      </c>
+      <c r="Y13">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="Z13">
+        <v>0.50241999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1489,8 +1540,29 @@
         <f t="shared" si="0"/>
         <v>0.10665999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <v>0.21925</v>
+      </c>
+      <c r="V14">
+        <v>0.63512000000000002</v>
+      </c>
+      <c r="W14">
+        <v>0.75666999999999995</v>
+      </c>
+      <c r="X14">
+        <v>0.63356999999999997</v>
+      </c>
+      <c r="Y14">
+        <v>0.48891000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1537,8 +1609,29 @@
         <f t="shared" si="0"/>
         <v>0.14476999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15">
+        <v>0.19495999999999999</v>
+      </c>
+      <c r="V15">
+        <v>0.78200999999999998</v>
+      </c>
+      <c r="W15">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="X15">
+        <v>0.96221999999999996</v>
+      </c>
+      <c r="Y15">
+        <v>0.56333</v>
+      </c>
+      <c r="Z15">
+        <v>0.56047999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1679,7 @@
         <v>0.20290000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +1727,7 @@
         <v>0.1509100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1775,7 @@
         <v>0.21103000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1729,8 +1822,29 @@
         <f t="shared" si="0"/>
         <v>7.7380000000000004E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>0.13838</v>
+      </c>
+      <c r="V19">
+        <v>0.53166999999999998</v>
+      </c>
+      <c r="W19">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="X19">
+        <v>0.62548000000000004</v>
+      </c>
+      <c r="Y19">
+        <v>0.40631</v>
+      </c>
+      <c r="Z19">
+        <v>0.41987999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1777,8 +1891,29 @@
         <f t="shared" si="0"/>
         <v>0.20991999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20">
+        <v>9.1666999999999998E-2</v>
+      </c>
+      <c r="V20">
+        <v>0.44563000000000003</v>
+      </c>
+      <c r="W20">
+        <v>0.70833000000000002</v>
+      </c>
+      <c r="X20">
+        <v>0.69237000000000004</v>
+      </c>
+      <c r="Y20">
+        <v>0.3155</v>
+      </c>
+      <c r="Z20">
+        <v>0.29680000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1825,8 +1960,29 @@
         <f t="shared" si="0"/>
         <v>0.11929000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21">
+        <v>0.13274</v>
+      </c>
+      <c r="V21">
+        <v>0.55928999999999995</v>
+      </c>
+      <c r="W21">
+        <v>0.87166999999999994</v>
+      </c>
+      <c r="X21">
+        <v>0.71833000000000002</v>
+      </c>
+      <c r="Y21">
+        <v>0.44048999999999999</v>
+      </c>
+      <c r="Z21">
+        <v>0.47627000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +2029,29 @@
         <f t="shared" si="0"/>
         <v>6.8099999999999938E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22">
+        <v>0.20963999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="W22">
+        <v>0.69713999999999998</v>
+      </c>
+      <c r="X22">
+        <v>0.71143000000000001</v>
+      </c>
+      <c r="Y22">
+        <v>0.42920999999999998</v>
+      </c>
+      <c r="Z22">
+        <v>0.4425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1921,8 +2098,29 @@
         <f t="shared" si="0"/>
         <v>0.29055999999999993</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23">
+        <v>8.4286E-2</v>
+      </c>
+      <c r="V23">
+        <v>0.43036000000000002</v>
+      </c>
+      <c r="W23">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="X23">
+        <v>0.68737999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>0.37141000000000002</v>
+      </c>
+      <c r="Z23">
+        <v>0.47189999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1969,8 +2167,29 @@
         <f t="shared" si="0"/>
         <v>0.23346</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24">
+        <v>8.9166999999999996E-2</v>
+      </c>
+      <c r="V24">
+        <v>0.35416999999999998</v>
+      </c>
+      <c r="W24">
+        <v>0.67166999999999999</v>
+      </c>
+      <c r="X24">
+        <v>0.59</v>
+      </c>
+      <c r="Y24">
+        <v>0.36348999999999998</v>
+      </c>
+      <c r="Z24">
+        <v>0.42468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2017,8 +2236,29 @@
         <f>R25-Q25</f>
         <v>0.12964999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25">
+        <v>0.12333</v>
+      </c>
+      <c r="V25">
+        <v>0.57535999999999998</v>
+      </c>
+      <c r="W25">
+        <v>0.65451999999999999</v>
+      </c>
+      <c r="X25">
+        <v>0.57555999999999996</v>
+      </c>
+      <c r="Y25">
+        <v>0.38811000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>0.42698999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2065,8 +2305,29 @@
         <f t="shared" si="0"/>
         <v>0.22683999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0.27095000000000002</v>
+      </c>
+      <c r="W26">
+        <v>0.59048</v>
+      </c>
+      <c r="X26">
+        <v>0.58082999999999996</v>
+      </c>
+      <c r="Y26">
+        <v>0.35313</v>
+      </c>
+      <c r="Z26">
+        <v>0.41632000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2113,8 +2374,29 @@
         <f t="shared" si="0"/>
         <v>0.19634000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27">
+        <v>0.14555999999999999</v>
+      </c>
+      <c r="V27">
+        <v>0.4627</v>
+      </c>
+      <c r="W27">
+        <v>0.62905</v>
+      </c>
+      <c r="X27">
+        <v>0.63356999999999997</v>
+      </c>
+      <c r="Y27">
+        <v>0.40694000000000002</v>
+      </c>
+      <c r="Z27">
+        <v>0.40992000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2161,8 +2443,29 @@
         <f t="shared" si="0"/>
         <v>3.8449999999999984E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28">
+        <v>0.15611</v>
+      </c>
+      <c r="V28">
+        <v>0.63365000000000005</v>
+      </c>
+      <c r="W28">
+        <v>0.64832999999999996</v>
+      </c>
+      <c r="X28">
+        <v>0.59</v>
+      </c>
+      <c r="Y28">
+        <v>0.60892999999999997</v>
+      </c>
+      <c r="Z28">
+        <v>0.53027999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2209,8 +2512,29 @@
         <f t="shared" si="0"/>
         <v>0.15203</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" t="s">
+        <v>78</v>
+      </c>
+      <c r="V29">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="W29">
+        <v>0.82</v>
+      </c>
+      <c r="X29">
+        <v>0.70992</v>
+      </c>
+      <c r="Y29">
+        <v>0.62495999999999996</v>
+      </c>
+      <c r="Z29">
+        <v>0.62495999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2257,8 +2581,29 @@
         <f t="shared" si="0"/>
         <v>0.21785999999999994</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30">
+        <v>0.13844999999999999</v>
+      </c>
+      <c r="V30">
+        <v>0.53929000000000005</v>
+      </c>
+      <c r="W30">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="X30">
+        <v>0.73619000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>0.41705999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>0.4425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2305,8 +2650,29 @@
         <f t="shared" si="0"/>
         <v>-8.3089999999999997E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31">
+        <v>0.17857000000000001</v>
+      </c>
+      <c r="V31">
+        <v>0.67857000000000001</v>
+      </c>
+      <c r="W31">
+        <v>0.55166999999999999</v>
+      </c>
+      <c r="X31">
+        <v>0.56167</v>
+      </c>
+      <c r="Y31">
+        <v>0.33722000000000002</v>
+      </c>
+      <c r="Z31">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2353,8 +2719,29 @@
         <f t="shared" si="0"/>
         <v>0.16523999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32">
+        <v>0.10278</v>
+      </c>
+      <c r="V32">
+        <v>0.42365000000000003</v>
+      </c>
+      <c r="W32">
+        <v>0.72333000000000003</v>
+      </c>
+      <c r="X32">
+        <v>0.61892999999999998</v>
+      </c>
+      <c r="Y32">
+        <v>0.38658999999999999</v>
+      </c>
+      <c r="Z32">
+        <v>0.43036000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2401,8 +2788,29 @@
         <f t="shared" si="0"/>
         <v>0.21761999999999992</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="V33">
+        <v>0.43332999999999999</v>
+      </c>
+      <c r="W33">
+        <v>0.66393000000000002</v>
+      </c>
+      <c r="X33">
+        <v>0.71118999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>0.35515999999999998</v>
+      </c>
+      <c r="Z33">
+        <v>0.35339999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2449,8 +2857,29 @@
         <f t="shared" si="0"/>
         <v>0.10670000000000007</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34">
+        <v>5.5238000000000002E-2</v>
+      </c>
+      <c r="V34">
+        <v>0.40523999999999999</v>
+      </c>
+      <c r="W34">
+        <v>0.63666999999999996</v>
+      </c>
+      <c r="X34">
+        <v>0.61285999999999996</v>
+      </c>
+      <c r="Y34">
+        <v>0.43436999999999998</v>
+      </c>
+      <c r="Z34">
+        <v>0.43139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2497,8 +2926,29 @@
         <f t="shared" si="0"/>
         <v>0.22214000000000006</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35">
+        <v>0.12496</v>
+      </c>
+      <c r="V35">
+        <v>0.36221999999999999</v>
+      </c>
+      <c r="W35">
+        <v>0.60833000000000004</v>
+      </c>
+      <c r="X35">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="Y35">
+        <v>0.49556</v>
+      </c>
+      <c r="Z35">
+        <v>0.46618999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2545,8 +2995,29 @@
         <f t="shared" si="0"/>
         <v>0.10246</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36">
+        <v>0.17937</v>
+      </c>
+      <c r="V36">
+        <v>0.74892999999999998</v>
+      </c>
+      <c r="W36">
+        <v>0.86451999999999996</v>
+      </c>
+      <c r="X36">
+        <v>0.91666999999999998</v>
+      </c>
+      <c r="Y36">
+        <v>0.65615000000000001</v>
+      </c>
+      <c r="Z36">
+        <v>0.61697999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2593,8 +3064,29 @@
         <f t="shared" si="0"/>
         <v>5.2309999999999968E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37">
+        <v>0.12024</v>
+      </c>
+      <c r="V37">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W37">
+        <v>0.755</v>
+      </c>
+      <c r="X37">
+        <v>0.67452000000000001</v>
+      </c>
+      <c r="Y37">
+        <v>0.47968</v>
+      </c>
+      <c r="Z37">
+        <v>0.44991999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2641,8 +3133,29 @@
         <f>R38-Q38</f>
         <v>0.27350999999999992</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38">
+        <v>0.15468000000000001</v>
+      </c>
+      <c r="V38">
+        <v>0.45924999999999999</v>
+      </c>
+      <c r="W38">
+        <v>0.80213999999999996</v>
+      </c>
+      <c r="X38">
+        <v>0.74833000000000005</v>
+      </c>
+      <c r="Y38">
+        <v>0.52917000000000003</v>
+      </c>
+      <c r="Z38">
+        <v>0.49784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2689,8 +3202,29 @@
         <f t="shared" si="0"/>
         <v>0.17666000000000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39">
+        <v>0.14008000000000001</v>
+      </c>
+      <c r="V39">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="W39">
+        <v>0.81472</v>
+      </c>
+      <c r="X39">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="Y39">
+        <v>0.50876999999999994</v>
+      </c>
+      <c r="Z39">
+        <v>0.50348999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2737,8 +3271,29 @@
         <f t="shared" si="0"/>
         <v>0.17212000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40">
+        <v>0.16202</v>
+      </c>
+      <c r="V40">
+        <v>0.53246000000000004</v>
+      </c>
+      <c r="W40">
+        <v>0.76642999999999994</v>
+      </c>
+      <c r="X40">
+        <v>0.85143000000000002</v>
+      </c>
+      <c r="Y40">
+        <v>0.50931000000000004</v>
+      </c>
+      <c r="Z40">
+        <v>0.49249999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2785,8 +3340,29 @@
         <f t="shared" si="0"/>
         <v>0.12651000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41">
+        <v>0.18917</v>
+      </c>
+      <c r="V41">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="W41">
+        <v>0.85833000000000004</v>
+      </c>
+      <c r="X41">
+        <v>0.78976000000000002</v>
+      </c>
+      <c r="Y41">
+        <v>0.70892999999999995</v>
+      </c>
+      <c r="Z41">
+        <v>0.70713999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2833,8 +3409,29 @@
         <f t="shared" si="0"/>
         <v>0.19965999999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s">
+        <v>78</v>
+      </c>
+      <c r="V42">
+        <v>0.45834999999999998</v>
+      </c>
+      <c r="W42">
+        <v>0.78142999999999996</v>
+      </c>
+      <c r="X42">
+        <v>0.81655</v>
+      </c>
+      <c r="Y42">
+        <v>0.48638999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>0.43864999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2881,8 +3478,29 @@
         <f t="shared" si="0"/>
         <v>0.17285</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43">
+        <v>4.6667E-2</v>
+      </c>
+      <c r="V43">
+        <v>0.42897000000000002</v>
+      </c>
+      <c r="W43">
+        <v>0.8</v>
+      </c>
+      <c r="X43">
+        <v>0.69167000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0.46432000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>0.45617000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2929,8 +3547,29 @@
         <f t="shared" si="0"/>
         <v>0.23221999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44">
+        <v>0.15332999999999999</v>
+      </c>
+      <c r="V44">
+        <v>0.56849000000000005</v>
+      </c>
+      <c r="W44">
+        <v>0.67166999999999999</v>
+      </c>
+      <c r="X44">
+        <v>0.69</v>
+      </c>
+      <c r="Y44">
+        <v>0.50341000000000002</v>
+      </c>
+      <c r="Z44">
+        <v>0.52481999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2977,8 +3616,29 @@
         <f t="shared" si="0"/>
         <v>0.30187000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45">
+        <v>0.25274000000000002</v>
+      </c>
+      <c r="V45">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="W45">
+        <v>0.69547999999999999</v>
+      </c>
+      <c r="X45">
+        <v>0.64654999999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0.47456999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>0.50290999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -3025,8 +3685,29 @@
         <f t="shared" si="0"/>
         <v>0.22940000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" t="s">
+        <v>47</v>
+      </c>
+      <c r="U46">
+        <v>0.22536</v>
+      </c>
+      <c r="V46">
+        <v>0.58357000000000003</v>
+      </c>
+      <c r="W46">
+        <v>0.75548000000000004</v>
+      </c>
+      <c r="X46">
+        <v>0.71667000000000003</v>
+      </c>
+      <c r="Y46">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>0.60214000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3073,8 +3754,29 @@
         <f t="shared" si="0"/>
         <v>0.14163999999999993</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>48</v>
+      </c>
+      <c r="U47">
+        <v>0.10417</v>
+      </c>
+      <c r="V47">
+        <v>0.39548</v>
+      </c>
+      <c r="W47">
+        <v>0.53571000000000002</v>
+      </c>
+      <c r="X47">
+        <v>0.52356999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0.44167000000000001</v>
+      </c>
+      <c r="Z47">
+        <v>0.44353999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3121,8 +3823,29 @@
         <f t="shared" si="0"/>
         <v>0.12531999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>49</v>
+      </c>
+      <c r="U48">
+        <v>0.17619000000000001</v>
+      </c>
+      <c r="V48">
+        <v>0.37070999999999998</v>
+      </c>
+      <c r="W48">
+        <v>0.60667000000000004</v>
+      </c>
+      <c r="X48">
+        <v>0.52186999999999995</v>
+      </c>
+      <c r="Y48">
+        <v>0.35920999999999997</v>
+      </c>
+      <c r="Z48">
+        <v>0.37290000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -3169,8 +3892,29 @@
         <f t="shared" si="0"/>
         <v>0.13266</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U49">
+        <v>8.1667000000000003E-2</v>
+      </c>
+      <c r="V49">
+        <v>0.31163000000000002</v>
+      </c>
+      <c r="W49">
+        <v>0.49332999999999999</v>
+      </c>
+      <c r="X49" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y49">
+        <v>0.35238000000000003</v>
+      </c>
+      <c r="Z49">
+        <v>0.30739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -3217,8 +3961,29 @@
         <f t="shared" si="0"/>
         <v>0.14566999999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
+        <v>51</v>
+      </c>
+      <c r="U50" t="s">
+        <v>78</v>
+      </c>
+      <c r="V50">
+        <v>0.37875999999999999</v>
+      </c>
+      <c r="W50">
+        <v>0.50278</v>
+      </c>
+      <c r="X50">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0.33417000000000002</v>
+      </c>
+      <c r="Z50">
+        <v>0.29987999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -3265,8 +4030,29 @@
         <f t="shared" si="0"/>
         <v>0.24774000000000007</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51">
+        <v>0.18667</v>
+      </c>
+      <c r="V51">
+        <v>0.67786000000000002</v>
+      </c>
+      <c r="W51">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="X51">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>0.59433000000000002</v>
+      </c>
+      <c r="Z51">
+        <v>0.51676999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3313,8 +4099,29 @@
         <f t="shared" si="0"/>
         <v>0.15642999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" t="s">
+        <v>53</v>
+      </c>
+      <c r="U52">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="V52">
+        <v>0.83936999999999995</v>
+      </c>
+      <c r="W52">
+        <v>0.94333</v>
+      </c>
+      <c r="X52">
+        <v>0.95476000000000005</v>
+      </c>
+      <c r="Y52">
+        <v>0.71836999999999995</v>
+      </c>
+      <c r="Z52">
+        <v>0.67693999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -3361,8 +4168,29 @@
         <f t="shared" si="0"/>
         <v>0.27159</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>54</v>
+      </c>
+      <c r="U53">
+        <v>0.14484</v>
+      </c>
+      <c r="V53">
+        <v>0.61</v>
+      </c>
+      <c r="W53">
+        <v>0.95</v>
+      </c>
+      <c r="X53">
+        <v>0.90917000000000003</v>
+      </c>
+      <c r="Y53">
+        <v>0.56916999999999995</v>
+      </c>
+      <c r="Z53">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3409,8 +4237,29 @@
         <f t="shared" si="0"/>
         <v>0.21304000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54">
+        <v>0.14762</v>
+      </c>
+      <c r="V54">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="W54">
+        <v>0.74451999999999996</v>
+      </c>
+      <c r="X54">
+        <v>0.78393000000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0.43485000000000001</v>
+      </c>
+      <c r="Z54">
+        <v>0.41687000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -3457,8 +4306,29 @@
         <f t="shared" si="0"/>
         <v>0.23131000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>56</v>
+      </c>
+      <c r="U55">
+        <v>0.16333</v>
+      </c>
+      <c r="V55">
+        <v>0.63380999999999998</v>
+      </c>
+      <c r="W55">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="X55">
+        <v>0.81047999999999998</v>
+      </c>
+      <c r="Y55">
+        <v>0.48975999999999997</v>
+      </c>
+      <c r="Z55">
+        <v>0.48309999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -3505,8 +4375,29 @@
         <f t="shared" si="0"/>
         <v>0.29110999999999992</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56">
+        <v>0.28619</v>
+      </c>
+      <c r="V56">
+        <v>0.36917</v>
+      </c>
+      <c r="W56">
+        <v>0.77666999999999997</v>
+      </c>
+      <c r="X56">
+        <v>0.78869</v>
+      </c>
+      <c r="Y56">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>0.44516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -3553,8 +4444,29 @@
         <f t="shared" si="0"/>
         <v>0.16929000000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57">
+        <v>0.14721999999999999</v>
+      </c>
+      <c r="V57">
+        <v>0.6069</v>
+      </c>
+      <c r="W57">
+        <v>0.78393000000000002</v>
+      </c>
+      <c r="X57">
+        <v>0.77571000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0.48332999999999998</v>
+      </c>
+      <c r="Z57">
+        <v>0.47647</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -3601,8 +4513,29 @@
         <f>R58-Q58</f>
         <v>0.41583000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
+        <v>59</v>
+      </c>
+      <c r="U58" t="s">
+        <v>78</v>
+      </c>
+      <c r="V58">
+        <v>0.50365000000000004</v>
+      </c>
+      <c r="W58">
+        <v>0.86167000000000005</v>
+      </c>
+      <c r="X58" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y58">
+        <v>0.41961999999999999</v>
+      </c>
+      <c r="Z58">
+        <v>0.45135999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -3634,7 +4567,7 @@
         <v>0.86292999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3648,7 +4581,7 @@
         <v>0.88329000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -3662,7 +4595,7 @@
         <v>0.90803999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -3676,7 +4609,7 @@
         <v>0.92649000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -3690,7 +4623,7 @@
         <v>0.88971</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>

--- a/תוצאות.xlsx
+++ b/תוצאות.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B403A190-EEBF-4912-9340-68453D19F96F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D962CC-3760-4D88-B3DF-784F35E1B1BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0AD10F95-3B72-4A1F-B7ED-57675A7B1E6D}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{0AD10F95-3B72-4A1F-B7ED-57675A7B1E6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
   <si>
     <t>description</t>
   </si>
@@ -230,6 +231,243 @@
   </si>
   <si>
     <t>subject: 2session: 8</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>worst precision</t>
+  </si>
+  <si>
+    <t>best precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pca </t>
+  </si>
+  <si>
+    <t>pca GMM precision</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 2</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 3</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 4</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 5</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 6</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 7</t>
+  </si>
+  <si>
+    <t>subject: 1 session: 8</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 2</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 3</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 4</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 5</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 6</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 7</t>
+  </si>
+  <si>
+    <t>subject: 2 session: 8</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 2</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 3</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 4</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 5</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 6</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 7</t>
+  </si>
+  <si>
+    <t>subject: 3 session: 8</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 2</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 3</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 4</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 5</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 6</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 7</t>
+  </si>
+  <si>
+    <t>subject: 4 session: 8</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 2</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 3</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 4</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 5</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 6</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 7</t>
+  </si>
+  <si>
+    <t>subject: 5 session: 8</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 2</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 3</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 4</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 5</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 6</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 7</t>
+  </si>
+  <si>
+    <t>subject: 6 session: 8</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 2</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 3</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 4</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 5</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 6</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 7</t>
+  </si>
+  <si>
+    <t>subject: 7 session: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfect transformation </t>
+  </si>
+  <si>
+    <t>subject: 8 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 9 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 10 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 11 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 12 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 13 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 14 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 15 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 16 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 17 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 18 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 19 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 20 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 21 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 22 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 23 session: 1</t>
+  </si>
+  <si>
+    <t>subject: 24 session: 1</t>
   </si>
 </sst>
 </file>
@@ -285,6 +523,2478 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>7.0793999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23211000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22961000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15548000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9404999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18285999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15820999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9286000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17679</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2738000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1070999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8889E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4286000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5396999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1666999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11679</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1085</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11683</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5960000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.9682999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19994000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4166999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.8333000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20705999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17579</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8333000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0681999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12917000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.4286000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16833000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.10111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.11917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13929</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3332999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17623</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13274</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.16667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.16949</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.10278</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.20666999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.23254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12131</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.15714</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.12595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.11607000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17107</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0951999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15357000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B545-4725-A826-81305F01EB9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95476000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97777999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86112999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92083000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90032000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92583000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84855999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84582999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88456000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92071000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90713999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89722000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84562999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85916999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90307999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86611000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84921000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91766000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.86472000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83313000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90737999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92254000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89434999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85284000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93142999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.87912000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9496</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88683000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.90325</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86055000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88353000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85523000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86043000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84147000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98333000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.96750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.92127000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93974999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94277999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94252999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.95892999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92305999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98182000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.93225999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87936999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62431999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96943999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98889000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.93820999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95476000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.90820999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.88253999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.85587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92281999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.90051000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B545-4725-A826-81305F01EB9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0.83909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94543999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78420999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91610999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89785999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82340999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85975999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62678999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47922999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67818999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55606999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68023999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25947999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53381000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54778000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53964000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66202000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36492000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38757999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57179000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49697999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48942000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52015999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39361000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40476000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51200999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43524000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7046</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62333000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.49667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62421000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74429000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.81171000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62302000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48881000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58452000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45745999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41607</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52544999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.73250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.81547999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64492000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55706</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46732000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56916999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51714000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.47465000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.73155000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.68532000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.80556000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.65920999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.39023999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76507999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85238000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.73487999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42791000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93849000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.42163</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.47162999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83794000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.56023999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71070999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.65032000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B545-4725-A826-81305F01EB9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0.72036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89246000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75504000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85987999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80905000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82103000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79488000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56976000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55698000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25357000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43452000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42005999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56277999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42421999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43668000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.40583000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34705999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54212000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49795</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38107000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.40714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55757999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47421999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61599000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57547999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45184000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52905000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.59928999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.42837999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51807000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54766000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28593000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.40060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47005999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58797999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77320999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.47365000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50516000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41983999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.48309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39853</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52056000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63332999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.62385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53166999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.29594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.80286000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56942000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.46840999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85377000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.40676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48169000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75516000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42492000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44507999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B545-4725-A826-81305F01EB9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="798548096"/>
+        <c:axId val="789529424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="798548096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789529424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="789529424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798548096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>7.0793999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23211000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22961000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15548000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9404999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18285999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15820999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9286000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17679</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2738000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1070999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8889E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4286000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5396999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1666999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11679</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1085</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11683</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5960000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.9682999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19994000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4166999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.8333000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20705999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17579</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8333000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0681999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12917000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.4286000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16833000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.10111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.11917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13929</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3332999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17623</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13274</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.16667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.16949</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.10278</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.20666999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.23254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12131</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.15714</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.12595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.11607000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17107</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0951999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15357000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3811-44C8-8624-980DD289A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95476000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97777999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86112999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92083000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90032000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92583000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84855999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84582999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88456000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92071000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90713999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89722000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84562999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85916999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90307999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86611000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84921000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91766000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.86472000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83313000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90737999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92254000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89434999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85284000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93142999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.87912000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9496</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88683000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.90325</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86055000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88353000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85523000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86043000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84147000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98333000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.96750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.92127000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93974999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94277999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94252999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.95892999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92305999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98182000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.93225999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87936999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62431999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96943999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98889000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.93820999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95476000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.90820999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.88253999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.85587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92281999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.90051000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3811-44C8-8624-980DD289A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0.83909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94543999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78420999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91610999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89785999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82340999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85975999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62678999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47922999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67818999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55606999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68023999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25947999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53381000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54778000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53964000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66202000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36492000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38757999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57179000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49697999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48942000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52015999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39361000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40476000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51200999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43524000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7046</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62333000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.49667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62421000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74429000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.81171000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62302000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48881000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58452000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45745999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41607</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52544999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.73250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.81547999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64492000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55706</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46732000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56916999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51714000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.47465000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.73155000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.68532000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.80556000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.65920999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.39023999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76507999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85238000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.73487999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42791000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93849000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.42163</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.47162999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83794000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.56023999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71070999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.65032000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3811-44C8-8624-980DD289A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0.72036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89246000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75504000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85987999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80905000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82103000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79488000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56976000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55698000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25357000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43452000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42005999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56277999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42421999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43668000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.40583000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34705999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54212000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49795</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38107000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.40714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55757999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47421999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61599000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57547999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45184000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52905000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.59928999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.42837999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51807000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54766000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28593000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.40060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47005999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58797999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77320999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.47365000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50516000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41983999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.48309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39853</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52056000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63332999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.62385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53166999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.29594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.80286000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56942000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.46840999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85377000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.40676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48169000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75516000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42492000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44507999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3811-44C8-8624-980DD289A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="792434080"/>
+        <c:axId val="789525680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="792434080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789525680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="789525680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792434080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -847,7 +3557,1368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>7.0793999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23211000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22961000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15548000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9404999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18285999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15820999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9286000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17679</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2738000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1070999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8889E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4286000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5396999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1666999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11679</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1085</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11683</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5960000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.9682999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19994000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4166999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.8333000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20705999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17579</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8333000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0681999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12917000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.4286000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16833000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.10111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.11917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13929</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3332999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17623</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13274</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.16667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.16949</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.10278</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.20666999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.23254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12131</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.15714</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.12595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.11607000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17107</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.0951999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15357000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BB8-4BEF-BA3D-819A8AC748F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95476000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97777999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86112999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92083000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90032000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92583000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84855999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84582999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88456000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92071000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90713999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89722000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84562999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85916999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90307999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86611000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84921000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91766000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.86472000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83313000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90737999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92254000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89434999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85284000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93142999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.87912000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9496</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88683000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.90325</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86055000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88353000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85523000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86043000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84147000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98333000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.96750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.92127000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93974999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94277999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94252999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.95892999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92305999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98182000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.93225999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87936999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62431999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96943999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98889000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.93820999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95476000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.90820999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.88253999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.85587000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92281999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.90051000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BB8-4BEF-BA3D-819A8AC748F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0.83909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94543999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78420999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91610999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89785999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82340999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85975999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62678999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47922999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67818999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55606999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68023999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25947999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53381000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54778000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53964000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66202000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36492000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38757999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57179000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49697999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48942000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52015999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39361000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40476000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51200999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43524000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7046</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62333000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.49667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62421000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74429000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.81171000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62302000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48881000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58452000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45745999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41607</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52544999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.73250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.81547999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64492000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55706</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46732000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56916999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51714000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.47465000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.73155000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.68532000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.80556000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.65920999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.39023999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76507999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85238000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.73487999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42791000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93849000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.42163</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.47162999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83794000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.56023999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71070999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.65032000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BB8-4BEF-BA3D-819A8AC748F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0.72036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89246000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75504000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85987999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80905000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82103000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79488000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56976000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55698000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25357000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43452000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42005999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56277999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42421999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43668000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.40583000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34705999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54212000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49795</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38107000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.40714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55757999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47421999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61599000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57547999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45184000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52905000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.59928999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.42837999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51807000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54766000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28593000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.40060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47005999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58797999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77320999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.47365000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50516000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41983999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.48309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39853</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52056000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63332999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.62385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53166999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.29594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.50939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.80286000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56942000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.46840999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85377000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.40676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48169000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75516000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42492000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44507999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9BB8-4BEF-BA3D-819A8AC748F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="709175984"/>
+        <c:axId val="708850240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="709175984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708850240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708850240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709175984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1390,7 +5461,1604 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DF6537FE-C2C9-4937-8E29-137776C06F71}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E184A47F-A1F4-4BE3-BD79-2F0BF482F84F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9295918" cy="6076709"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F8D878-276C-437C-8927-7580B84D18B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9295918" cy="6076709"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100A4D0C-FACF-4EB5-9DE4-42852AD88234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1423,6 +7091,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801C96AD-EA4D-46FF-A543-AE785AF8E7A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1728,10 +7432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A108F7-9DA8-4812-8B0A-C46AB41634D9}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="G60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,9 +7449,14 @@
     <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +7484,11 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1804,8 +7516,23 @@
       <c r="I2">
         <v>0.76848000000000005</v>
       </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1833,8 +7560,23 @@
       <c r="I3">
         <v>0.90556000000000003</v>
       </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3">
+        <v>7.0793999999999996E-2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.83909</v>
+      </c>
+      <c r="O3">
+        <v>0.72036</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1862,8 +7604,23 @@
       <c r="I4">
         <v>0.74904999999999999</v>
       </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.98570999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.94543999999999995</v>
+      </c>
+      <c r="O4">
+        <v>0.89246000000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1891,8 +7648,23 @@
       <c r="I5">
         <v>0.86392999999999998</v>
       </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5">
+        <v>0.21192</v>
+      </c>
+      <c r="M5">
+        <v>0.95476000000000005</v>
+      </c>
+      <c r="N5">
+        <v>0.78420999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.75504000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1920,8 +7692,23 @@
       <c r="I6">
         <v>0.87975999999999999</v>
       </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6">
+        <v>0.23211000000000001</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.91610999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.87439999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1949,8 +7736,23 @@
       <c r="I7">
         <v>0.77832999999999997</v>
       </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7">
+        <v>0.24693999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.95321</v>
+      </c>
+      <c r="N7">
+        <v>0.89785999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.85987999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1978,8 +7780,23 @@
       <c r="I8">
         <v>0.82499999999999996</v>
       </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8">
+        <v>0.16619</v>
+      </c>
+      <c r="M8">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.82340999999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.80905000000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2007,8 +7824,23 @@
       <c r="I9">
         <v>0.84531999999999996</v>
       </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9">
+        <v>0.24262</v>
+      </c>
+      <c r="M9">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="N9">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.82103000000000004</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2036,8 +7868,23 @@
       <c r="I10">
         <v>0.4269</v>
       </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10">
+        <v>0.22961000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.98570999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.91332999999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.79488000000000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2065,8 +7912,23 @@
       <c r="I11">
         <v>0.48214000000000001</v>
       </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.97777999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.62678999999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.56976000000000004</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2094,8 +7956,23 @@
       <c r="I12">
         <v>0.52964</v>
       </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>0.86112999999999995</v>
+      </c>
+      <c r="N12">
+        <v>0.47922999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.43012</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2123,8 +8000,23 @@
       <c r="I13">
         <v>0.57476000000000005</v>
       </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.92083000000000004</v>
+      </c>
+      <c r="N13">
+        <v>0.67818999999999996</v>
+      </c>
+      <c r="O13">
+        <v>0.55018</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2152,8 +8044,23 @@
       <c r="I14">
         <v>0.63575000000000004</v>
       </c>
+      <c r="K14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14">
+        <v>0.20274</v>
+      </c>
+      <c r="M14">
+        <v>0.90032000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.55606999999999995</v>
+      </c>
+      <c r="O14">
+        <v>0.39333000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2181,8 +8088,23 @@
       <c r="I15">
         <v>0.31929000000000002</v>
       </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15">
+        <v>0.15548000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.92583000000000004</v>
+      </c>
+      <c r="N15">
+        <v>0.68023999999999996</v>
+      </c>
+      <c r="O15">
+        <v>0.55698000000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2210,8 +8132,23 @@
       <c r="I16">
         <v>0.41341</v>
       </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16">
+        <v>0.14918000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.84855999999999998</v>
+      </c>
+      <c r="N16">
+        <v>0.25947999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.25357000000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2239,8 +8176,23 @@
       <c r="I17">
         <v>0.42971999999999999</v>
       </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17">
+        <v>9.9404999999999993E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.84582999999999997</v>
+      </c>
+      <c r="N17">
+        <v>0.63475999999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.43117</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2268,8 +8220,23 @@
       <c r="I18">
         <v>0.41055999999999998</v>
       </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18">
+        <v>0.18285999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.83396000000000003</v>
+      </c>
+      <c r="N18">
+        <v>0.53381000000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.43452000000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2297,8 +8264,23 @@
       <c r="I19">
         <v>0.44933000000000001</v>
       </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19">
+        <v>0.15820999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.86987999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.54778000000000004</v>
+      </c>
+      <c r="O19">
+        <v>0.38979999999999998</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2326,8 +8308,23 @@
       <c r="I20">
         <v>0.49989</v>
       </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20">
+        <v>3.9286000000000001E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.88456000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="O20">
+        <v>0.42005999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2355,8 +8352,23 @@
       <c r="I21">
         <v>0.51249999999999996</v>
       </c>
+      <c r="K21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21">
+        <v>0.17679</v>
+      </c>
+      <c r="M21">
+        <v>0.92071000000000003</v>
+      </c>
+      <c r="N21">
+        <v>0.53964000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.56277999999999995</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2384,8 +8396,23 @@
       <c r="I22">
         <v>0.31297999999999998</v>
       </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>0.26016</v>
+      </c>
+      <c r="M22">
+        <v>0.90713999999999995</v>
+      </c>
+      <c r="N22">
+        <v>0.66202000000000005</v>
+      </c>
+      <c r="O22">
+        <v>0.42421999999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2413,8 +8440,23 @@
       <c r="I23">
         <v>0.19494</v>
       </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23">
+        <v>8.2738000000000006E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.89722000000000002</v>
+      </c>
+      <c r="N23">
+        <v>0.36492000000000002</v>
+      </c>
+      <c r="O23">
+        <v>0.43668000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2442,8 +8484,23 @@
       <c r="I24">
         <v>0.48768</v>
       </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24">
+        <v>0.13333</v>
+      </c>
+      <c r="M24">
+        <v>0.84562999999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.38757999999999998</v>
+      </c>
+      <c r="O24">
+        <v>0.29286000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2471,8 +8528,23 @@
       <c r="I25">
         <v>0.33312999999999998</v>
       </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25">
+        <v>9.1070999999999999E-2</v>
+      </c>
+      <c r="M25">
+        <v>0.85916999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.57179000000000002</v>
+      </c>
+      <c r="O25">
+        <v>0.40583000000000002</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2500,8 +8572,23 @@
       <c r="I26">
         <v>0.32784999999999997</v>
       </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26">
+        <v>3.8889E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.90307999999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.26114999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.34705999999999998</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2529,8 +8616,23 @@
       <c r="I27">
         <v>0.51107000000000002</v>
       </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27">
+        <v>7.4286000000000005E-2</v>
+      </c>
+      <c r="M27">
+        <v>0.86611000000000005</v>
+      </c>
+      <c r="N27">
+        <v>0.49697999999999998</v>
+      </c>
+      <c r="O27">
+        <v>0.56413000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2558,8 +8660,23 @@
       <c r="I28">
         <v>0.43329000000000001</v>
       </c>
+      <c r="K28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28">
+        <v>6.5396999999999997E-2</v>
+      </c>
+      <c r="M28">
+        <v>0.84921000000000002</v>
+      </c>
+      <c r="N28">
+        <v>0.48942000000000002</v>
+      </c>
+      <c r="O28">
+        <v>0.46548</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2587,8 +8704,23 @@
       <c r="I29">
         <v>0.42603000000000002</v>
       </c>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29">
+        <v>9.1666999999999998E-2</v>
+      </c>
+      <c r="M29">
+        <v>0.91766000000000003</v>
+      </c>
+      <c r="N29">
+        <v>0.52895000000000003</v>
+      </c>
+      <c r="O29">
+        <v>0.54212000000000005</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2616,8 +8748,23 @@
       <c r="I30">
         <v>0.37651000000000001</v>
       </c>
+      <c r="K30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30">
+        <v>0.13</v>
+      </c>
+      <c r="M30">
+        <v>0.86472000000000004</v>
+      </c>
+      <c r="N30">
+        <v>0.52015999999999996</v>
+      </c>
+      <c r="O30">
+        <v>0.49795</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2645,8 +8792,23 @@
       <c r="I31">
         <v>0.38574000000000003</v>
       </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31">
+        <v>0.13761999999999999</v>
+      </c>
+      <c r="M31">
+        <v>0.83313000000000004</v>
+      </c>
+      <c r="N31">
+        <v>0.39361000000000002</v>
+      </c>
+      <c r="O31">
+        <v>0.51776</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2674,8 +8836,23 @@
       <c r="I32">
         <v>0.39306999999999997</v>
       </c>
+      <c r="K32" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>0.11583</v>
+      </c>
+      <c r="M32">
+        <v>0.90737999999999996</v>
+      </c>
+      <c r="N32">
+        <v>0.40476000000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.36262</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -2703,8 +8880,23 @@
       <c r="I33">
         <v>0.33276</v>
       </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33">
+        <v>0.13356999999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.92254000000000003</v>
+      </c>
+      <c r="N33">
+        <v>0.51200999999999997</v>
+      </c>
+      <c r="O33">
+        <v>0.38107000000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2732,8 +8924,23 @@
       <c r="I34">
         <v>0.41582999999999998</v>
       </c>
+      <c r="K34" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="M34">
+        <v>0.89434999999999998</v>
+      </c>
+      <c r="N34">
+        <v>0.51114999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.34226000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2761,8 +8968,23 @@
       <c r="I35">
         <v>0.65280000000000005</v>
       </c>
+      <c r="K35" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35">
+        <v>0.11679</v>
+      </c>
+      <c r="M35">
+        <v>0.85284000000000004</v>
+      </c>
+      <c r="N35">
+        <v>0.43524000000000002</v>
+      </c>
+      <c r="O35">
+        <v>0.40714</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2790,8 +9012,23 @@
       <c r="I36">
         <v>0.41741</v>
       </c>
+      <c r="K36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36">
+        <v>0.1085</v>
+      </c>
+      <c r="M36">
+        <v>0.93142999999999998</v>
+      </c>
+      <c r="N36">
+        <v>0.7046</v>
+      </c>
+      <c r="O36">
+        <v>0.55757999999999996</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2819,8 +9056,23 @@
       <c r="I37">
         <v>0.59857000000000005</v>
       </c>
+      <c r="K37" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37">
+        <v>0.11683</v>
+      </c>
+      <c r="M37">
+        <v>0.90183000000000002</v>
+      </c>
+      <c r="N37">
+        <v>0.62333000000000005</v>
+      </c>
+      <c r="O37">
+        <v>0.47421999999999997</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -2848,8 +9100,23 @@
       <c r="I38">
         <v>0.44155</v>
       </c>
+      <c r="K38" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38">
+        <v>9.5960000000000004E-2</v>
+      </c>
+      <c r="M38">
+        <v>0.83833000000000002</v>
+      </c>
+      <c r="N38">
+        <v>0.49667</v>
+      </c>
+      <c r="O38">
+        <v>0.61599000000000004</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2877,8 +9144,23 @@
       <c r="I39">
         <v>0.53713999999999995</v>
       </c>
+      <c r="K39" t="s">
+        <v>107</v>
+      </c>
+      <c r="L39">
+        <v>8.9682999999999999E-2</v>
+      </c>
+      <c r="M39">
+        <v>0.87912000000000001</v>
+      </c>
+      <c r="N39">
+        <v>0.62421000000000004</v>
+      </c>
+      <c r="O39">
+        <v>0.57547999999999999</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2906,8 +9188,23 @@
       <c r="I40">
         <v>0.60833000000000004</v>
       </c>
+      <c r="K40" t="s">
+        <v>108</v>
+      </c>
+      <c r="L40">
+        <v>0.1077</v>
+      </c>
+      <c r="M40">
+        <v>0.9496</v>
+      </c>
+      <c r="N40">
+        <v>0.74429000000000001</v>
+      </c>
+      <c r="O40">
+        <v>0.45184000000000002</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2935,8 +9232,23 @@
       <c r="I41">
         <v>0.45571</v>
       </c>
+      <c r="K41" t="s">
+        <v>109</v>
+      </c>
+      <c r="L41">
+        <v>0.19994000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.92527999999999999</v>
+      </c>
+      <c r="N41">
+        <v>0.81171000000000004</v>
+      </c>
+      <c r="O41">
+        <v>0.52905000000000002</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2964,8 +9276,23 @@
       <c r="I42">
         <v>0.42825000000000002</v>
       </c>
+      <c r="K42" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42">
+        <v>0.12262000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="N42">
+        <v>0.62302000000000002</v>
+      </c>
+      <c r="O42">
+        <v>0.59928999999999999</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2993,8 +9320,23 @@
       <c r="I43">
         <v>0.47214</v>
       </c>
+      <c r="K43" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43">
+        <v>7.4166999999999997E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.95833000000000002</v>
+      </c>
+      <c r="N43">
+        <v>0.52</v>
+      </c>
+      <c r="O43">
+        <v>0.42837999999999998</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3022,8 +9364,23 @@
       <c r="I44">
         <v>0.51329000000000002</v>
       </c>
+      <c r="K44" t="s">
+        <v>112</v>
+      </c>
+      <c r="L44">
+        <v>5.8333000000000003E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.88683000000000001</v>
+      </c>
+      <c r="N44">
+        <v>0.60036</v>
+      </c>
+      <c r="O44">
+        <v>0.52249999999999996</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3051,8 +9408,23 @@
       <c r="I45">
         <v>0.51380999999999999</v>
       </c>
+      <c r="K45" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45">
+        <v>0.20705999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0.90325</v>
+      </c>
+      <c r="N45">
+        <v>0.48881000000000002</v>
+      </c>
+      <c r="O45">
+        <v>0.51807000000000003</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3080,8 +9452,23 @@
       <c r="I46">
         <v>0.45739999999999997</v>
       </c>
+      <c r="K46" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46">
+        <v>0.17579</v>
+      </c>
+      <c r="M46">
+        <v>0.86055000000000004</v>
+      </c>
+      <c r="N46">
+        <v>0.58452000000000004</v>
+      </c>
+      <c r="O46">
+        <v>0.54766000000000004</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3109,8 +9496,23 @@
       <c r="I47">
         <v>0.32917000000000002</v>
       </c>
+      <c r="K47" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47">
+        <v>0.1</v>
+      </c>
+      <c r="M47">
+        <v>0.88353000000000004</v>
+      </c>
+      <c r="N47">
+        <v>0.45745999999999998</v>
+      </c>
+      <c r="O47">
+        <v>0.53959999999999997</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3138,8 +9540,23 @@
       <c r="I48">
         <v>0.43968000000000002</v>
       </c>
+      <c r="K48" t="s">
+        <v>116</v>
+      </c>
+      <c r="L48">
+        <v>0.215</v>
+      </c>
+      <c r="M48">
+        <v>0.85523000000000005</v>
+      </c>
+      <c r="N48">
+        <v>0.43313000000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.28593000000000002</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3167,8 +9584,23 @@
       <c r="I49">
         <v>0.31679000000000002</v>
       </c>
+      <c r="K49" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49">
+        <v>0.1</v>
+      </c>
+      <c r="M49">
+        <v>0.86043000000000003</v>
+      </c>
+      <c r="N49">
+        <v>0.41607</v>
+      </c>
+      <c r="O49">
+        <v>0.40060000000000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -3196,8 +9628,23 @@
       <c r="I50">
         <v>0.5796</v>
       </c>
+      <c r="K50" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50">
+        <v>5.8333000000000003E-2</v>
+      </c>
+      <c r="M50">
+        <v>0.84147000000000005</v>
+      </c>
+      <c r="N50">
+        <v>0.52544999999999997</v>
+      </c>
+      <c r="O50">
+        <v>0.47005999999999998</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +9672,23 @@
       <c r="I51">
         <v>0.76409000000000005</v>
       </c>
+      <c r="K51" t="s">
+        <v>119</v>
+      </c>
+      <c r="L51">
+        <v>5.0681999999999998E-2</v>
+      </c>
+      <c r="M51">
+        <v>0.98333000000000004</v>
+      </c>
+      <c r="N51">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="O51">
+        <v>0.58797999999999995</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3254,8 +9716,23 @@
       <c r="I52">
         <v>0.54332999999999998</v>
       </c>
+      <c r="K52" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52">
+        <v>0.12917000000000001</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0.81547999999999998</v>
+      </c>
+      <c r="O52">
+        <v>0.77320999999999995</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3283,8 +9760,23 @@
       <c r="I53">
         <v>0.48631000000000002</v>
       </c>
+      <c r="K53" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53">
+        <v>5.4286000000000001E-2</v>
+      </c>
+      <c r="M53">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="N53">
+        <v>0.64492000000000005</v>
+      </c>
+      <c r="O53">
+        <v>0.43154999999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -3312,8 +9804,23 @@
       <c r="I54">
         <v>0.51222000000000001</v>
       </c>
+      <c r="K54" t="s">
+        <v>122</v>
+      </c>
+      <c r="L54">
+        <v>0.16833000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.99</v>
+      </c>
+      <c r="N54">
+        <v>0.51798</v>
+      </c>
+      <c r="O54">
+        <v>0.47365000000000002</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -3341,8 +9848,23 @@
       <c r="I55">
         <v>0.48107</v>
       </c>
+      <c r="K55" t="s">
+        <v>123</v>
+      </c>
+      <c r="L55">
+        <v>0.10111000000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.92127000000000003</v>
+      </c>
+      <c r="N55">
+        <v>0.55706</v>
+      </c>
+      <c r="O55">
+        <v>0.50516000000000005</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -3370,8 +9892,23 @@
       <c r="I56">
         <v>0.51166999999999996</v>
       </c>
+      <c r="K56" t="s">
+        <v>124</v>
+      </c>
+      <c r="L56">
+        <v>0.11917</v>
+      </c>
+      <c r="M56">
+        <v>0.93974999999999997</v>
+      </c>
+      <c r="N56">
+        <v>0.46732000000000001</v>
+      </c>
+      <c r="O56">
+        <v>0.41983999999999999</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3399,8 +9936,57 @@
       <c r="I57">
         <v>0.43881999999999999</v>
       </c>
+      <c r="K57" t="s">
+        <v>125</v>
+      </c>
+      <c r="L57">
+        <v>0.13929</v>
+      </c>
+      <c r="M57">
+        <v>0.94277999999999995</v>
+      </c>
+      <c r="N57">
+        <v>0.56916999999999995</v>
+      </c>
+      <c r="O57">
+        <v>0.48309999999999997</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>126</v>
+      </c>
+      <c r="L58">
+        <v>5.3332999999999998E-2</v>
+      </c>
+      <c r="M58">
+        <v>0.94252999999999998</v>
+      </c>
+      <c r="N58">
+        <v>0.51714000000000004</v>
+      </c>
+      <c r="O58">
+        <v>0.39853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>128</v>
+      </c>
+      <c r="L59">
+        <v>0.17623</v>
+      </c>
+      <c r="M59">
+        <v>0.95892999999999995</v>
+      </c>
+      <c r="N59">
+        <v>0.47465000000000002</v>
+      </c>
+      <c r="O59">
+        <v>0.52056000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>22</v>
       </c>
@@ -3416,8 +10002,23 @@
       <c r="I60" t="s">
         <v>25</v>
       </c>
+      <c r="K60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="M60">
+        <v>0.92305999999999999</v>
+      </c>
+      <c r="N60">
+        <v>0.73155000000000003</v>
+      </c>
+      <c r="O60">
+        <v>0.63332999999999995</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E61">
         <f>AVERAGE(E2:E9)</f>
         <v>0.92731625000000006</v>
@@ -3438,8 +10039,23 @@
         <f t="shared" ref="I61" si="1">AVERAGE(I2:I9)</f>
         <v>0.82692874999999999</v>
       </c>
+      <c r="K61" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61">
+        <v>0.13274</v>
+      </c>
+      <c r="M61">
+        <v>0.98182000000000003</v>
+      </c>
+      <c r="N61">
+        <v>0.68532000000000004</v>
+      </c>
+      <c r="O61">
+        <v>0.62385000000000002</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E62">
         <f>AVERAGE(E10:E17)</f>
         <v>0.74311375000000002</v>
@@ -3460,8 +10076,23 @@
         <f t="shared" ref="I62" si="3">AVERAGE(I10:I17)</f>
         <v>0.47645124999999999</v>
       </c>
+      <c r="K62" t="s">
+        <v>131</v>
+      </c>
+      <c r="L62">
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="M62">
+        <v>0.93225999999999998</v>
+      </c>
+      <c r="N62">
+        <v>0.80556000000000005</v>
+      </c>
+      <c r="O62">
+        <v>0.53166999999999998</v>
+      </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E63">
         <f>AVERAGE(E18:E25)</f>
         <v>0.60425625000000005</v>
@@ -3482,8 +10113,23 @@
         <f t="shared" ref="I63" si="5">AVERAGE(I18:I25)</f>
         <v>0.40012625000000002</v>
       </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63">
+        <v>0.16949</v>
+      </c>
+      <c r="M63">
+        <v>0.87936999999999999</v>
+      </c>
+      <c r="N63">
+        <v>0.65920999999999996</v>
+      </c>
+      <c r="O63">
+        <v>0.57809999999999995</v>
+      </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E64">
         <f>AVERAGE(E26:E33)</f>
         <v>0.63908750000000003</v>
@@ -3504,8 +10150,23 @@
         <f t="shared" ref="I64" si="7">AVERAGE(I26:I33)</f>
         <v>0.39829000000000003</v>
       </c>
+      <c r="K64" t="s">
+        <v>133</v>
+      </c>
+      <c r="L64">
+        <v>0.10278</v>
+      </c>
+      <c r="M64">
+        <v>0.62431999999999999</v>
+      </c>
+      <c r="N64">
+        <v>0.39023999999999998</v>
+      </c>
+      <c r="O64">
+        <v>0.29594999999999999</v>
+      </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E65">
         <f>AVERAGE(E34:E41)</f>
         <v>0.78622000000000003</v>
@@ -3526,8 +10187,23 @@
         <f t="shared" ref="I65" si="9">AVERAGE(I34:I41)</f>
         <v>0.51591750000000003</v>
       </c>
+      <c r="K65" t="s">
+        <v>134</v>
+      </c>
+      <c r="L65">
+        <v>0.20666999999999999</v>
+      </c>
+      <c r="M65">
+        <v>0.96943999999999997</v>
+      </c>
+      <c r="N65">
+        <v>0.76507999999999998</v>
+      </c>
+      <c r="O65">
+        <v>0.50939999999999996</v>
+      </c>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E66">
         <f>AVERAGE(E42:E49)</f>
         <v>0.62898374999999995</v>
@@ -3548,8 +10224,23 @@
         <f t="shared" ref="I66" si="11">AVERAGE(I42:I49)</f>
         <v>0.43381625000000001</v>
       </c>
+      <c r="K66" t="s">
+        <v>135</v>
+      </c>
+      <c r="L66">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="M66">
+        <v>0.98889000000000005</v>
+      </c>
+      <c r="N66">
+        <v>0.85238000000000003</v>
+      </c>
+      <c r="O66">
+        <v>0.80286000000000002</v>
+      </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E67">
         <f>AVERAGE(E50:E57)</f>
         <v>0.84231750000000005</v>
@@ -3569,6 +10260,175 @@
       <c r="I67">
         <f t="shared" ref="I67" si="13">AVERAGE(I50:I57)</f>
         <v>0.53963875000000006</v>
+      </c>
+      <c r="K67" t="s">
+        <v>136</v>
+      </c>
+      <c r="L67">
+        <v>0.23254</v>
+      </c>
+      <c r="M67">
+        <v>0.95655000000000001</v>
+      </c>
+      <c r="N67">
+        <v>0.73487999999999998</v>
+      </c>
+      <c r="O67">
+        <v>0.56942000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>137</v>
+      </c>
+      <c r="L68">
+        <v>0.12131</v>
+      </c>
+      <c r="M68">
+        <v>0.93820999999999999</v>
+      </c>
+      <c r="N68">
+        <v>0.42791000000000001</v>
+      </c>
+      <c r="O68">
+        <v>0.46840999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>138</v>
+      </c>
+      <c r="L69">
+        <v>0.15714</v>
+      </c>
+      <c r="M69">
+        <v>0.95476000000000005</v>
+      </c>
+      <c r="N69">
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="O69">
+        <v>0.85377000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70">
+        <v>0.12595000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.90820999999999996</v>
+      </c>
+      <c r="N70">
+        <v>0.42163</v>
+      </c>
+      <c r="O70">
+        <v>0.40676000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>140</v>
+      </c>
+      <c r="L71">
+        <v>0.11607000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.88253999999999999</v>
+      </c>
+      <c r="N71">
+        <v>0.47162999999999999</v>
+      </c>
+      <c r="O71">
+        <v>0.48169000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>141</v>
+      </c>
+      <c r="L72">
+        <v>0.17107</v>
+      </c>
+      <c r="M72">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="N72">
+        <v>0.83794000000000002</v>
+      </c>
+      <c r="O72">
+        <v>0.75516000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>142</v>
+      </c>
+      <c r="L73">
+        <v>8.0951999999999996E-2</v>
+      </c>
+      <c r="M73">
+        <v>0.85587000000000002</v>
+      </c>
+      <c r="N73">
+        <v>0.56023999999999996</v>
+      </c>
+      <c r="O73">
+        <v>0.42492000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>143</v>
+      </c>
+      <c r="L74">
+        <v>0.17</v>
+      </c>
+      <c r="M74">
+        <v>0.92281999999999997</v>
+      </c>
+      <c r="N74">
+        <v>0.71070999999999995</v>
+      </c>
+      <c r="O74">
+        <v>0.61570999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>144</v>
+      </c>
+      <c r="L75">
+        <v>0.15357000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0.90051000000000003</v>
+      </c>
+      <c r="N75">
+        <v>0.65032000000000001</v>
+      </c>
+      <c r="O75">
+        <v>0.44507999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f>AVERAGE(L3:L75)</f>
+        <v>0.13437104109589043</v>
+      </c>
+      <c r="M79">
+        <f>AVERAGE(M3:M75)</f>
+        <v>0.91230534246575334</v>
+      </c>
+      <c r="N79">
+        <f>AVERAGE(N3:N75)</f>
+        <v>0.60357506849315057</v>
+      </c>
+      <c r="O79">
+        <f>AVERAGE(O3:O75)</f>
+        <v>0.52893780821917802</v>
       </c>
     </row>
   </sheetData>
